--- a/data.xlsx
+++ b/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="67">
   <si>
     <t>List</t>
   </si>
@@ -648,26 +648,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="70">
   <si>
     <t>List</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>₹11,522</t>
+  </si>
+  <si>
+    <t>₹3,760</t>
+  </si>
+  <si>
+    <t>Wooden Street Valencia Leatherette 1 Seater Motorized Recliner Sofa | Single Seater Recliner Chairs for Home and Office with 1 Year Warranty | Saddle Brown</t>
+  </si>
+  <si>
+    <t>₹30,743</t>
   </si>
 </sst>
 </file>
@@ -595,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,18 +620,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -648,26 +665,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="76">
   <si>
     <t>List</t>
   </si>
@@ -232,6 +232,24 @@
   </si>
   <si>
     <t>₹30,743</t>
+  </si>
+  <si>
+    <t>ABOUT SPACE 6 Tier Book Shelf for Home Library 6ft with Assembly,Cabinet For Storage,White Bookshelves for Living Room Display Stand Book Rack For Office,Kitchen,Bedroom(33x24x180cm - Engineered Wood)</t>
+  </si>
+  <si>
+    <t>₹2,598</t>
+  </si>
+  <si>
+    <t>₹3,298</t>
+  </si>
+  <si>
+    <t>Wooden Street Arvana Motorised 1 Seater Recliner | Suede Fabric with Rocking Revolving Reclining Mechanism (32 L x 30 W x 38 H Inch) | Advanced FlexGRID Technology | Grey Upholstery | 1 Year Warranty</t>
+  </si>
+  <si>
+    <t>₹32,879</t>
+  </si>
+  <si>
+    <t>₹1,994</t>
   </si>
 </sst>
 </file>
@@ -620,26 +638,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -673,18 +691,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
